--- a/prj/src/templates/template_cf_signal_12_verification.xlsx
+++ b/prj/src/templates/template_cf_signal_12_verification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naderc\Documents\Python\cbtc_configuration_checking\prj\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80DA20A4-93CC-4A74-951C-8CD1C47B5D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB49A6C-932C-4E9D-9680-3B79D9953589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,15 +171,20 @@
     <t>Boolean</t>
   </si>
   <si>
+    <t>Maximum Distance</t>
+  </si>
+  <si>
+    <t>Platform Related</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>CF_SIGNAL_12</t>
+      <t>CF_SIGNAL_12:</t>
     </r>
     <r>
       <rPr>
@@ -188,17 +193,11 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>: Delayed legitimate turnback distance shall ensure the following properties:
+      <t xml:space="preserve"> Delayed legitimate turnback distance shall ensure the following properties:
  - A train shall lock the Signalling approaching zone for sure: therefore it shall be less than the distance between the block limit of the signal and the closest entrance of signalling approach zones of any routes starting from the signal minus at_deshunt_max_dist minus block_laying_uncertainty minus max ([mtc_rollback_dist], [at_rollback_dist], [overshoot_recovery_dist] + [overshoot_recovery_stopping_max_dist]).
  - There shall be no civil infrastructure (switch point, fouling point, derailer, flood gate….) at less than this distance from the block limit of the signal that a train does not lock for sure by shunting the proper blocks.
 0 is a safe value</t>
     </r>
-  </si>
-  <si>
-    <t>Maximum Distance</t>
-  </si>
-  <si>
-    <t>Platform Related</t>
   </si>
 </sst>
 </file>
@@ -327,13 +326,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -347,11 +339,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -363,6 +356,12 @@
     <font>
       <sz val="10"/>
       <name val="Helv"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -535,109 +534,109 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1606,7 +1605,7 @@
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
@@ -1836,7 +1835,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="35" t="s">
         <v>23</v>
@@ -1860,7 +1859,7 @@
         <v>24</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="36" t="s">
         <v>25</v>

--- a/prj/src/templates/template_cf_signal_12_verification.xlsx
+++ b/prj/src/templates/template_cf_signal_12_verification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naderc\Documents\Python\cbtc_configuration_checking\prj\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB49A6C-932C-4E9D-9680-3B79D9953589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FBA2BF-5DA7-4FDF-8ACC-4AD9E41B8EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="1" r:id="rId1"/>
@@ -162,12 +162,6 @@
     <t>IXL APZ Length</t>
   </si>
   <si>
-    <t>IXL APZ Limit Upstream</t>
-  </si>
-  <si>
-    <t>IXL APZ Limit Downstream</t>
-  </si>
-  <si>
     <t>Boolean</t>
   </si>
   <si>
@@ -198,6 +192,12 @@
  - There shall be no civil infrastructure (switch point, fouling point, derailer, flood gate….) at less than this distance from the block limit of the signal that a train does not lock for sure by shunting the proper blocks.
 0 is a safe value</t>
     </r>
+  </si>
+  <si>
+    <t>Downstream Limit</t>
+  </si>
+  <si>
+    <t>Upstream Limit</t>
   </si>
 </sst>
 </file>
@@ -1436,29 +1436,29 @@
       <selection activeCell="B13" sqref="B13:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="16.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="7" customWidth="1"/>
-    <col min="6" max="7" width="16.28515625" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="7"/>
+    <col min="1" max="2" width="16.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" style="7" customWidth="1"/>
+    <col min="6" max="7" width="16.33203125" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
@@ -1467,63 +1467,63 @@
       <c r="E13" s="25"/>
       <c r="F13" s="26"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="27"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="29"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="27"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="29"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="29"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="27"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="29"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
       <c r="F18" s="29"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="27"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
       <c r="F19" s="29"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="30"/>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
       <c r="F20" s="32"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1531,7 +1531,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
       <c r="C23" s="1" t="s">
         <v>0</v>
@@ -1545,7 +1545,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1553,7 +1553,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -1561,7 +1561,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -1569,14 +1569,14 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="3" t="s">
         <v>4</v>
       </c>
@@ -1601,11 +1601,11 @@
       <selection activeCell="B4" sqref="B4:N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
@@ -1620,7 +1620,7 @@
       <c r="M4" s="34"/>
       <c r="N4" s="34"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
@@ -1635,7 +1635,7 @@
       <c r="M5" s="34"/>
       <c r="N5" s="34"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
@@ -1650,7 +1650,7 @@
       <c r="M6" s="34"/>
       <c r="N6" s="34"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
@@ -1665,7 +1665,7 @@
       <c r="M7" s="34"/>
       <c r="N7" s="34"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
@@ -1680,7 +1680,7 @@
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -1695,7 +1695,7 @@
       <c r="M9" s="34"/>
       <c r="N9" s="34"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
@@ -1710,7 +1710,7 @@
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
@@ -1725,7 +1725,7 @@
       <c r="M11" s="34"/>
       <c r="N11" s="34"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
@@ -1740,7 +1740,7 @@
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
@@ -1755,7 +1755,7 @@
       <c r="M13" s="34"/>
       <c r="N13" s="34"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
@@ -1770,7 +1770,7 @@
       <c r="M14" s="34"/>
       <c r="N14" s="34"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
@@ -1803,28 +1803,28 @@
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="13" customWidth="1"/>
     <col min="5" max="5" width="14" style="14" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="12" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="12"/>
-    <col min="11" max="11" width="7.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="12"/>
+    <col min="11" max="11" width="7.5546875" style="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="12" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="10.5703125" style="15" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="10.5546875" style="15" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" style="13" customWidth="1"/>
     <col min="19" max="19" width="39" style="19" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="12"/>
+    <col min="20" max="16384" width="11.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>21</v>
       </c>
@@ -1835,19 +1835,19 @@
         <v>22</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E1" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G1" s="40"/>
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="41" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K1" s="41"/>
       <c r="L1" s="41"/>
@@ -1859,7 +1859,7 @@
         <v>24</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="36" t="s">
         <v>25</v>
@@ -1871,7 +1871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -1961,12 +1961,12 @@
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>12</v>
       </c>
@@ -1977,12 +1977,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="42"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>15</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>16</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>17</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>18</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>19</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>20</v>
       </c>
@@ -2036,13 +2036,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/prj/src/templates/template_cf_signal_12_verification.xlsx
+++ b/prj/src/templates/template_cf_signal_12_verification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naderc\Documents\Python\cbtc_configuration_checking\prj\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FBA2BF-5DA7-4FDF-8ACC-4AD9E41B8EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB61146F-1903-4813-BF91-E67702FB1120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="1" r:id="rId1"/>
@@ -171,12 +171,19 @@
     <t>Platform Related</t>
   </si>
   <si>
+    <t>Downstream Limit</t>
+  </si>
+  <si>
+    <t>Upstream Limit</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>CF_SIGNAL_12:</t>
     </r>
@@ -184,8 +191,9 @@
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
-        <rFont val="Calibri"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Delayed legitimate turnback distance shall ensure the following properties:
  - A train shall lock the Signalling approaching zone for sure: therefore it shall be less than the distance between the block limit of the signal and the closest entrance of signalling approach zones of any routes starting from the signal minus at_deshunt_max_dist minus block_laying_uncertainty minus max ([mtc_rollback_dist], [at_rollback_dist], [overshoot_recovery_dist] + [overshoot_recovery_stopping_max_dist]).
@@ -193,18 +201,12 @@
 0 is a safe value</t>
     </r>
   </si>
-  <si>
-    <t>Downstream Limit</t>
-  </si>
-  <si>
-    <t>Upstream Limit</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -214,35 +216,42 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -256,74 +265,9 @@
     <font>
       <b/>
       <sz val="20"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -359,10 +303,56 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -527,232 +517,232 @@
   </borders>
   <cellStyleXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="6" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="7" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="8" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="7" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="8" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="6" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -957,21 +947,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1517725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>188819</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1775726</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>75640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2" descr="Hitachi_Hitachi_STS_orizz_Project_and_External_Documents_Orizzontale">
+        <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2327E093-F453-4E8B-BD70-4C6A9B1DC1CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5654AA0F-D7C9-410F-B13F-0EF03055ABFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -980,7 +970,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -994,16 +984,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1086971" y="605118"/>
-          <a:ext cx="4416238" cy="390525"/>
+          <a:off x="1085850" y="400050"/>
+          <a:ext cx="2861576" cy="1275790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -1011,16 +998,6 @@
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1167,7 +1144,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1175,39 +1152,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1240,9 +1217,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1275,6 +1269,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1336,13 +1347,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1351,6 +1355,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1415,11 +1426,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1436,152 +1467,152 @@
       <selection activeCell="B13" sqref="B13:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.33203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" style="7" customWidth="1"/>
-    <col min="6" max="7" width="16.33203125" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="11.44140625" style="7"/>
+    <col min="1" max="2" width="16.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="10" customWidth="1"/>
+    <col min="6" max="7" width="16.28515625" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="24" t="s">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-    </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-    </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
-    </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
-      <c r="C23" s="1" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="11"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="5" t="s">
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="14"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="3" t="s">
+      <c r="D27" s="18"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="11"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1597,193 +1628,196 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8944B3-3DA5-49EF-A85C-2319D4D0361B}">
   <dimension ref="B4:N15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="14"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1798,115 +1832,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA561D3-D638-414C-A475-916EFF2DC8E9}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="13" customWidth="1"/>
-    <col min="5" max="5" width="14" style="14" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="12" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="12"/>
-    <col min="11" max="11" width="7.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="12" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="10.5546875" style="15" customWidth="1"/>
-    <col min="18" max="18" width="8.33203125" style="13" customWidth="1"/>
-    <col min="19" max="19" width="39" style="19" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="12"/>
+    <col min="1" max="1" width="21.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="24" customWidth="1"/>
+    <col min="5" max="5" width="14" style="25" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="23" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="23"/>
+    <col min="11" max="11" width="7.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="23" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="10.5703125" style="26" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" style="24" customWidth="1"/>
+    <col min="19" max="19" width="39" style="27" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="35" t="s">
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="21" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:S2" xr:uid="{1EA561D3-D638-414C-A475-916EFF2DC8E9}"/>
@@ -1956,17 +1990,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC7688A-0938-4B81-A903-2C1EE9812410}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>12</v>
       </c>
@@ -1977,71 +2012,71 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="42"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41" t="s">
         <v>30</v>
       </c>
     </row>

--- a/prj/src/templates/template_cf_signal_12_verification.xlsx
+++ b/prj/src/templates/template_cf_signal_12_verification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naderc\Documents\Python\cbtc_configuration_checking\prj\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB61146F-1903-4813-BF91-E67702FB1120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ECB662-DEEF-4E54-A677-96286FD86546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,12 +206,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -411,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -514,236 +521,274 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="7" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="8" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="19" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="6" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="9" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="9" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="6" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="7" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="8" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="108">
@@ -1469,150 +1514,150 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.28515625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="10" customWidth="1"/>
-    <col min="6" max="7" width="16.28515625" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="10"/>
+    <col min="1" max="2" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="16.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="11"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="14"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="14"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1634,190 +1679,190 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="14"/>
+    <col min="1" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1830,117 +1875,121 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA561D3-D638-414C-A475-916EFF2DC8E9}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="24" customWidth="1"/>
-    <col min="5" max="5" width="14" style="25" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="23" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="23"/>
-    <col min="11" max="11" width="7.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="23" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="10.5703125" style="26" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" style="24" customWidth="1"/>
-    <col min="19" max="19" width="39" style="27" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="23"/>
+    <col min="1" max="1" width="21.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="19" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="12" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="12" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="12" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="12" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="10.5703125" style="15" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" style="13" customWidth="1"/>
+    <col min="19" max="19" width="39" style="16" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="31" t="s">
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="37" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="35" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D3" s="47"/>
+      <c r="E3" s="44"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:S2" xr:uid="{1EA561D3-D638-414C-A475-916EFF2DC8E9}"/>
@@ -1997,8 +2046,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="14"/>
+    <col min="1" max="1" width="37.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2018,65 +2067,65 @@
       <c r="C2" s="43"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23" t="s">
         <v>30</v>
       </c>
     </row>

--- a/prj/src/templates/template_cf_signal_12_verification.xlsx
+++ b/prj/src/templates/template_cf_signal_12_verification.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naderc\Documents\Python\cbtc_configuration_checking\prj\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ECB662-DEEF-4E54-A677-96286FD86546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F104C8-D45E-4DE8-BC0E-E533A8EF7ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Header" sheetId="1" r:id="rId1"/>
+    <sheet name="Header" sheetId="17" r:id="rId1"/>
     <sheet name="Constraint" sheetId="16" r:id="rId2"/>
     <sheet name="CF_SIGNAL_12" sheetId="14" r:id="rId3"/>
     <sheet name="Parameters" sheetId="15" r:id="rId4"/>
@@ -70,22 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Verifier</t>
-  </si>
-  <si>
-    <t>Approver</t>
-  </si>
-  <si>
-    <t>C_D470:</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Status</t>
   </si>
@@ -105,9 +90,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Verification of CF_SIGNAL_12</t>
-  </si>
-  <si>
     <t>Parameter Name</t>
   </si>
   <si>
@@ -177,6 +159,17 @@
     <t>Upstream Limit</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CF_SIGNAL_12</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -185,7 +178,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CF_SIGNAL_12:</t>
+      <t>:</t>
     </r>
     <r>
       <rPr>
@@ -206,12 +199,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -270,13 +270,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -318,21 +311,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Aptos Narrow"/>
@@ -347,33 +325,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -418,92 +390,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -548,20 +440,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="108">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -660,138 +552,91 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="6" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="108"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="7" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="8" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="8" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="8" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="9" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="6" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="4" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="9" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="9" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="108">
+  <cellStyles count="109">
     <cellStyle name="Lien hypertexte 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Lien hypertexte 2 2" xfId="13" xr:uid="{593AF446-293B-43D6-923C-911DCB8F070F}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -888,6 +733,7 @@
     <cellStyle name="Normal 5" xfId="97" xr:uid="{CFE5BDC5-94AA-4AC1-BFE9-61CB8A899587}"/>
     <cellStyle name="Normal 5 2" xfId="98" xr:uid="{889CBB54-A3CE-4427-BC8E-75C7D0B46DC2}"/>
     <cellStyle name="Normal 50" xfId="7" xr:uid="{BBB89CCF-D59E-4010-9A64-3E3BBB9E87BE}"/>
+    <cellStyle name="Normal 51" xfId="108" xr:uid="{40EE9FE1-6A82-4A88-869D-9E5AC99CCB03}"/>
     <cellStyle name="Normal 6" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 6 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal 6 2 2" xfId="100" xr:uid="{DD8E46D7-8DBB-472B-9D28-BBBD2D3D4D2C}"/>
@@ -992,21 +838,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1775726</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>75640</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5654AA0F-D7C9-410F-B13F-0EF03055ABFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFA15816-567D-4F56-A5FC-D7E28A62D4D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1015,7 +861,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1029,8 +875,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1085850" y="400050"/>
-          <a:ext cx="2861576" cy="1275790"/>
+          <a:off x="792480" y="182880"/>
+          <a:ext cx="2956560" cy="1230630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1502,170 +1348,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Feuil1">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF8291B-0764-4ACE-98BE-CD07617A6743}">
+  <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A6:G28"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:F20"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="16.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="16.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="2" width="11.5546875" style="16"/>
+    <col min="3" max="3" width="31" style="16" customWidth="1"/>
+    <col min="4" max="4" width="51" style="16" customWidth="1"/>
+    <col min="5" max="5" width="31" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" style="16"/>
   </cols>
-  <sheetData>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-    </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-    </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
-    </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B13:F20"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1673,196 +1376,196 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8944B3-3DA5-49EF-A85C-2319D4D0361B}">
   <dimension ref="B4:N15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1879,117 +1582,117 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="19" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="12" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="12" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="12" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="12" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="10.5703125" style="15" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" style="13" customWidth="1"/>
-    <col min="19" max="19" width="39" style="16" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="12"/>
+    <col min="1" max="1" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="10.5546875" style="5" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="39" style="6" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D3" s="47"/>
-      <c r="E3" s="44"/>
+      <c r="H2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D3" s="15"/>
+      <c r="E3" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:S2" xr:uid="{1EA561D3-D638-414C-A475-916EFF2DC8E9}"/>
@@ -2044,89 +1747,89 @@
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="37.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23" t="s">
-        <v>30</v>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/prj/src/templates/template_cf_signal_12_verification.xlsx
+++ b/prj/src/templates/template_cf_signal_12_verification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naderc\Documents\Python\cbtc_configuration_checking\prj\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F104C8-D45E-4DE8-BC0E-E533A8EF7ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AE6E43-9B6E-48F6-97A5-14D2DD753BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="17" r:id="rId1"/>
@@ -161,24 +161,13 @@
   <si>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CF_SIGNAL_12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
+      <t>CF_SIGNAL_12:</t>
     </r>
     <r>
       <rPr>
@@ -199,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -325,14 +314,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
@@ -1358,13 +1339,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" style="16"/>
+    <col min="1" max="2" width="11.5703125" style="16"/>
     <col min="3" max="3" width="31" style="16" customWidth="1"/>
     <col min="4" max="4" width="51" style="16" customWidth="1"/>
     <col min="5" max="5" width="31" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="16"/>
+    <col min="6" max="16384" width="11.5703125" style="16"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1380,12 +1361,12 @@
       <selection activeCell="B4" sqref="B4:N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>29</v>
       </c>
@@ -1402,7 +1383,7 @@
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -1417,7 +1398,7 @@
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -1432,7 +1413,7 @@
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -1447,7 +1428,7 @@
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -1462,7 +1443,7 @@
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -1477,7 +1458,7 @@
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -1492,7 +1473,7 @@
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -1507,7 +1488,7 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -1522,7 +1503,7 @@
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -1537,7 +1518,7 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -1552,7 +1533,7 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -1585,28 +1566,28 @@
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="4" customWidth="1"/>
     <col min="6" max="6" width="10" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="10.5546875" style="5" customWidth="1"/>
-    <col min="18" max="18" width="8.33203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="10.5703125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" style="3" customWidth="1"/>
     <col min="19" max="19" width="39" style="6" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="2"/>
+    <col min="20" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
@@ -1653,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -1690,7 +1671,7 @@
       <c r="R2" s="21"/>
       <c r="S2" s="21"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D3" s="15"/>
       <c r="E3" s="14"/>
     </row>
@@ -1747,13 +1728,13 @@
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="37.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
@@ -1764,12 +1745,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
@@ -1778,7 +1759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
@@ -1787,7 +1768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
@@ -1796,7 +1777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
@@ -1805,7 +1786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
@@ -1814,7 +1795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
@@ -1823,7 +1804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>22</v>
       </c>
